--- a/References/ReqDocs/Rider/05_Home.xlsx
+++ b/References/ReqDocs/Rider/05_Home.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\2015FALLIS01\References\ReqDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Hoc Tap\FPT Univerdity\Do an tot nghiep 2015\2015FALLIS01\References\ReqDocs\Rider\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="05.Home" sheetId="1" r:id="rId1"/>
@@ -1312,17 +1312,8 @@
   </cellStyleXfs>
   <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,21 +1321,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1354,43 +1330,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1402,15 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1432,34 +1366,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1470,84 +1383,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1559,15 +1406,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1579,15 +1417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1596,6 +1425,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3766,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:AS37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,1051 +3793,1051 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="G1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="L1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="R1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="X1" s="1" t="s">
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="X1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AH1" s="1" t="s">
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AH1" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AN1" s="1" t="s">
+      <c r="AI1" s="133"/>
+      <c r="AJ1" s="133"/>
+      <c r="AK1" s="133"/>
+      <c r="AN1" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AT1" s="1" t="s">
+      <c r="AO1" s="133"/>
+      <c r="AP1" s="133"/>
+      <c r="AQ1" s="133"/>
+      <c r="AT1" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
+      <c r="AU1" s="133"/>
+      <c r="AV1" s="133"/>
+      <c r="AW1" s="133"/>
     </row>
     <row r="2" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="133"/>
     </row>
     <row r="3" spans="2:51" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
     </row>
     <row r="4" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="137"/>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="137"/>
+      <c r="O4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="5" t="s">
+      <c r="T4" s="137"/>
+      <c r="U4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="5" t="s">
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AH4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4" t="s">
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="9"/>
-      <c r="AN4" s="3" t="s">
+      <c r="AK4" s="139"/>
+      <c r="AN4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AO4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="5" t="s">
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AU4" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="5" t="s">
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="18"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19" t="s">
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="10"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AK5" s="20"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="18"/>
-      <c r="AT5" s="10" t="s">
+      <c r="AK5" s="12"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="10"/>
+      <c r="AT5" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="12"/>
+      <c r="AU5" s="125"/>
+      <c r="AV5" s="125"/>
+      <c r="AW5" s="126"/>
       <c r="AY5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="18"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="18"/>
-      <c r="AC6" s="1" t="s">
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="129"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="10"/>
+      <c r="AC6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="18"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="18"/>
-      <c r="AT6" s="21" t="s">
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="10"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="10"/>
+      <c r="AT6" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="23"/>
+      <c r="AU6" s="128"/>
+      <c r="AV6" s="128"/>
+      <c r="AW6" s="129"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="18"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="29"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17" t="s">
+      <c r="B7" s="130"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="10"/>
+      <c r="AC7" s="133"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="133"/>
+      <c r="AF7" s="133"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="15"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AQ7" s="18"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="26"/>
+      <c r="AQ7" s="10"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="131"/>
+      <c r="AV7" s="131"/>
+      <c r="AW7" s="132"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="18"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="29"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="18"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="30"/>
-      <c r="AV8" s="17" t="s">
+      <c r="E8" s="10"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="10"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="10"/>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="133"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="15"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="10"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AW8" s="18"/>
+      <c r="AW8" s="10"/>
     </row>
     <row r="9" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="18"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="18"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="18"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="18"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="10"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="10"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="10"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="10"/>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="18"/>
-      <c r="AC10" s="31" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="10"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="10"/>
+      <c r="AC10" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="33"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="18"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="18"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="18"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="136"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="10"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="10"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="10"/>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="17" t="s">
+      <c r="T11" s="9"/>
+      <c r="U11" s="10"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="18"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="34" t="s">
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="10"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="35"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="18"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="17" t="s">
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="107"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="10"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="18"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="17" t="s">
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="10"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="18"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="10"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="18"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="35"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="18"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="18"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="18"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="10"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="107"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="10"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="10"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="10"/>
     </row>
     <row r="13" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="18"/>
-      <c r="AC13" s="16"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="37"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="18"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="18"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17" t="s">
+      <c r="E13" s="10"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="10"/>
+      <c r="AC13" s="8"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="18"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="10"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="10"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AW13" s="18"/>
+      <c r="AW13" s="10"/>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="18"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="38" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="10"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="10"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="37"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="30" t="s">
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="18"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="18"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="18"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="18"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="10"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="10"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="10"/>
     </row>
     <row r="15" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="18"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="39" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="10"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="10"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AE15" s="40" t="s">
+      <c r="AE15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF15" s="18"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="18"/>
-      <c r="AN15" s="41" t="s">
+      <c r="AF15" s="10"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="10"/>
+      <c r="AN15" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="43"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="18"/>
+      <c r="AO15" s="109"/>
+      <c r="AP15" s="109"/>
+      <c r="AQ15" s="110"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="10"/>
     </row>
     <row r="16" spans="2:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="G16" s="44" t="s">
+      <c r="E16" s="10"/>
+      <c r="G16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-      <c r="R16" s="44" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="R16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="46"/>
-      <c r="X16" s="44" t="s">
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="24"/>
+      <c r="X16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="46"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="49"/>
-      <c r="AH16" s="44" t="s">
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="24"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="27"/>
+      <c r="AH16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="46"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="43"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17" t="s">
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="24"/>
+      <c r="AN16" s="108"/>
+      <c r="AO16" s="109"/>
+      <c r="AP16" s="109"/>
+      <c r="AQ16" s="110"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AW16" s="18"/>
+      <c r="AW16" s="10"/>
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="G17" s="50" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="R17" s="50" t="s">
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="R17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="S17" s="54" t="s">
+      <c r="S17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="T17" s="55"/>
-      <c r="U17" s="56"/>
-      <c r="X17" s="50" t="s">
+      <c r="T17" s="33"/>
+      <c r="U17" s="34"/>
+      <c r="X17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Y17" s="54" t="s">
+      <c r="Y17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="56"/>
-      <c r="AH17" s="50" t="s">
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="34"/>
+      <c r="AH17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AI17" s="51" t="s">
+      <c r="AI17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="53"/>
-      <c r="AN17" s="57" t="s">
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="31"/>
+      <c r="AN17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AO17" s="58" t="s">
+      <c r="AO17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="60"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="18"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="38"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="10"/>
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="G18" s="50" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-      <c r="R18" s="50" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="R18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="54" t="s">
+      <c r="S18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="55"/>
-      <c r="U18" s="56"/>
-      <c r="X18" s="50" t="s">
+      <c r="T18" s="33"/>
+      <c r="U18" s="34"/>
+      <c r="X18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Y18" s="54" t="s">
+      <c r="Y18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="56"/>
-      <c r="AH18" s="50" t="s">
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="34"/>
+      <c r="AH18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AI18" s="51" t="s">
+      <c r="AI18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="53"/>
-      <c r="AN18" s="57" t="s">
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="31"/>
+      <c r="AN18" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="56"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="18"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="34"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="10"/>
     </row>
     <row r="19" spans="2:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="G19" s="50" t="s">
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="G19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="18"/>
-      <c r="R19" s="50" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+      <c r="R19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="64" t="s">
+      <c r="S19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="T19" s="45" t="s">
+      <c r="T19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="U19" s="46"/>
-      <c r="X19" s="50" t="s">
+      <c r="U19" s="24"/>
+      <c r="X19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="Y19" s="65" t="s">
+      <c r="Y19" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="46"/>
-      <c r="AH19" s="50" t="s">
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="24"/>
+      <c r="AH19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="46"/>
-      <c r="AN19" s="66" t="s">
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="24"/>
+      <c r="AN19" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="68"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="71"/>
+      <c r="AO19" s="115"/>
+      <c r="AP19" s="115"/>
+      <c r="AQ19" s="116"/>
+      <c r="AT19" s="41"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="43"/>
     </row>
     <row r="20" spans="2:49" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="G20" s="72" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="G20" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="74"/>
-      <c r="J20" s="75" t="s">
+      <c r="I20" s="45"/>
+      <c r="J20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
-      <c r="R20" s="72" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="R20" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="S20" s="73" t="s">
+      <c r="S20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="T20" s="74"/>
-      <c r="U20" s="76" t="s">
+      <c r="T20" s="45"/>
+      <c r="U20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="X20" s="72" t="s">
+      <c r="X20" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="Y20" s="73" t="s">
+      <c r="Y20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="76" t="s">
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AH20" s="72" t="s">
+      <c r="AH20" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="AI20" s="73" t="s">
+      <c r="AI20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="75" t="s">
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AN20" s="77" t="s">
+      <c r="AN20" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="79"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="18"/>
+      <c r="AO20" s="120"/>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="121"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="10"/>
     </row>
     <row r="21" spans="2:49" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84" t="s">
+      <c r="G21" s="118"/>
+      <c r="H21" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="L21" s="86" t="s">
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="L21" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="88"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="89" t="s">
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="103"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="89"/>
-      <c r="U21" s="90"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="89" t="s">
+      <c r="T21" s="104"/>
+      <c r="U21" s="105"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="84" t="s">
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="105"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="85"/>
-      <c r="AN21" s="91" t="s">
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="91"/>
+      <c r="AN21" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="AO21" s="92"/>
-      <c r="AP21" s="92"/>
-      <c r="AQ21" s="93"/>
-      <c r="AT21" s="94" t="s">
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="51"/>
+      <c r="AT21" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="AU21" s="81" t="s">
+      <c r="AU21" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AV21" s="95" t="s">
+      <c r="AV21" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="AW21" s="82" t="s">
+      <c r="AW21" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-      <c r="G22" s="99" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="52"/>
+      <c r="G22" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
-      <c r="R22" s="99" t="s">
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
+      <c r="R22" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="101"/>
-      <c r="X22" s="99" t="s">
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="100"/>
+      <c r="X22" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
-      <c r="AH22" s="99" t="s">
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="100"/>
+      <c r="AH22" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="AI22" s="100"/>
-      <c r="AJ22" s="100"/>
-      <c r="AK22" s="101"/>
-      <c r="AN22" s="102"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="104"/>
-      <c r="AT22" s="105"/>
-      <c r="AU22" s="97"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="98"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="100"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="54"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="55"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="95"/>
+      <c r="AV22" s="97"/>
+      <c r="AW22" s="52"/>
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="107" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="56" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="108" t="s">
+      <c r="M24" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="S24" s="108" t="s">
+      <c r="S24" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Y24" s="108" t="s">
+      <c r="Y24" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="AD24" s="108" t="s">
+      <c r="AD24" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="AI24" s="108" t="s">
+      <c r="AI24" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="AO24" s="108" t="s">
+      <c r="AO24" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="AU24" s="108" t="s">
+      <c r="AU24" s="57" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4868,9 +4868,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="109"/>
-      <c r="C30" s="110" t="s">
+    <row r="30" spans="2:49" s="61" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59" t="s">
         <v>80</v>
       </c>
       <c r="D30"/>
@@ -4888,681 +4888,651 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
-      <c r="S30" s="111"/>
+      <c r="S30" s="60"/>
       <c r="T30"/>
-      <c r="U30" s="111"/>
+      <c r="U30" s="60"/>
     </row>
-    <row r="31" spans="2:49" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="109"/>
-      <c r="C31" s="113" t="s">
+    <row r="31" spans="2:49" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="58"/>
+      <c r="C31" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="114"/>
-      <c r="AK31" s="114"/>
-      <c r="AL31" s="114"/>
-      <c r="AM31" s="114"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="114"/>
-      <c r="AP31" s="114"/>
-      <c r="AQ31" s="114"/>
-      <c r="AR31" s="114"/>
-      <c r="AS31" s="116"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="65"/>
     </row>
-    <row r="32" spans="2:49" s="112" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="109"/>
-      <c r="C32" s="117">
+    <row r="32" spans="2:49" s="61" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="58"/>
+      <c r="C32" s="66">
         <v>1</v>
       </c>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
-      <c r="AC32" s="119"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="119"/>
-      <c r="AF32" s="119"/>
-      <c r="AG32" s="119"/>
-      <c r="AH32" s="119"/>
-      <c r="AI32" s="119"/>
-      <c r="AJ32" s="119"/>
-      <c r="AK32" s="119"/>
-      <c r="AL32" s="119"/>
-      <c r="AM32" s="119"/>
-      <c r="AN32" s="119"/>
-      <c r="AO32" s="119"/>
-      <c r="AP32" s="119"/>
-      <c r="AQ32" s="119"/>
-      <c r="AR32" s="119"/>
-      <c r="AS32" s="120"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="85"/>
+      <c r="AE32" s="85"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="85"/>
+      <c r="AI32" s="85"/>
+      <c r="AJ32" s="85"/>
+      <c r="AK32" s="85"/>
+      <c r="AL32" s="85"/>
+      <c r="AM32" s="85"/>
+      <c r="AN32" s="85"/>
+      <c r="AO32" s="85"/>
+      <c r="AP32" s="85"/>
+      <c r="AQ32" s="85"/>
+      <c r="AR32" s="85"/>
+      <c r="AS32" s="86"/>
     </row>
-    <row r="33" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="109"/>
-      <c r="C33" s="121">
+    <row r="33" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="58"/>
+      <c r="C33" s="67">
         <v>2</v>
       </c>
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="125"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="125"/>
-      <c r="V33" s="125"/>
-      <c r="W33" s="125"/>
-      <c r="X33" s="125"/>
-      <c r="Y33" s="125"/>
-      <c r="Z33" s="125"/>
-      <c r="AA33" s="125"/>
-      <c r="AB33" s="125"/>
-      <c r="AC33" s="125"/>
-      <c r="AD33" s="125"/>
-      <c r="AE33" s="125"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="125"/>
-      <c r="AJ33" s="125"/>
-      <c r="AK33" s="125"/>
-      <c r="AL33" s="125"/>
-      <c r="AM33" s="125"/>
-      <c r="AN33" s="125"/>
-      <c r="AO33" s="125"/>
-      <c r="AP33" s="125"/>
-      <c r="AQ33" s="125"/>
-      <c r="AR33" s="125"/>
-      <c r="AS33" s="126"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="71"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="71"/>
+      <c r="AN33" s="71"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="71"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="71"/>
+      <c r="AS33" s="72"/>
     </row>
-    <row r="34" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="109"/>
-      <c r="C34" s="16">
+    <row r="34" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="58"/>
+      <c r="C34" s="8">
         <v>3</v>
       </c>
-      <c r="D34" s="127" t="s">
+      <c r="D34" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="125"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="125"/>
-      <c r="V34" s="125"/>
-      <c r="W34" s="125"/>
-      <c r="X34" s="125"/>
-      <c r="Y34" s="125"/>
-      <c r="Z34" s="125"/>
-      <c r="AA34" s="125"/>
-      <c r="AB34" s="125"/>
-      <c r="AC34" s="125"/>
-      <c r="AD34" s="125"/>
-      <c r="AE34" s="125"/>
-      <c r="AF34" s="125"/>
-      <c r="AG34" s="125"/>
-      <c r="AH34" s="125"/>
-      <c r="AI34" s="125"/>
-      <c r="AJ34" s="125"/>
-      <c r="AK34" s="125"/>
-      <c r="AL34" s="125"/>
-      <c r="AM34" s="125"/>
-      <c r="AN34" s="125"/>
-      <c r="AO34" s="125"/>
-      <c r="AP34" s="125"/>
-      <c r="AQ34" s="125"/>
-      <c r="AR34" s="125"/>
-      <c r="AS34" s="126"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="71"/>
+      <c r="AK34" s="71"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="71"/>
+      <c r="AN34" s="71"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="71"/>
+      <c r="AQ34" s="71"/>
+      <c r="AR34" s="71"/>
+      <c r="AS34" s="72"/>
     </row>
-    <row r="35" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="109"/>
-      <c r="C35" s="16">
+    <row r="35" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="58"/>
+      <c r="C35" s="8">
         <v>4</v>
       </c>
-      <c r="D35" s="128" t="s">
+      <c r="D35" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="125"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="125"/>
-      <c r="V35" s="125"/>
-      <c r="W35" s="125"/>
-      <c r="X35" s="125"/>
-      <c r="Y35" s="125"/>
-      <c r="Z35" s="125"/>
-      <c r="AA35" s="125"/>
-      <c r="AB35" s="125"/>
-      <c r="AC35" s="125"/>
-      <c r="AD35" s="125"/>
-      <c r="AE35" s="125"/>
-      <c r="AF35" s="125"/>
-      <c r="AG35" s="125"/>
-      <c r="AH35" s="125"/>
-      <c r="AI35" s="125"/>
-      <c r="AJ35" s="125"/>
-      <c r="AK35" s="125"/>
-      <c r="AL35" s="125"/>
-      <c r="AM35" s="125"/>
-      <c r="AN35" s="125"/>
-      <c r="AO35" s="125"/>
-      <c r="AP35" s="125"/>
-      <c r="AQ35" s="125"/>
-      <c r="AR35" s="125"/>
-      <c r="AS35" s="126"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="71"/>
+      <c r="AK35" s="71"/>
+      <c r="AL35" s="71"/>
+      <c r="AM35" s="71"/>
+      <c r="AN35" s="71"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="71"/>
+      <c r="AQ35" s="71"/>
+      <c r="AR35" s="71"/>
+      <c r="AS35" s="72"/>
     </row>
-    <row r="36" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="109"/>
-      <c r="C36" s="129">
+    <row r="36" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="58"/>
+      <c r="C36" s="75">
         <v>5</v>
       </c>
-      <c r="D36" s="128" t="s">
+      <c r="D36" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="125"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="125"/>
-      <c r="V36" s="125"/>
-      <c r="W36" s="125"/>
-      <c r="X36" s="125"/>
-      <c r="Y36" s="125"/>
-      <c r="Z36" s="125"/>
-      <c r="AA36" s="125"/>
-      <c r="AB36" s="125"/>
-      <c r="AC36" s="125"/>
-      <c r="AD36" s="125"/>
-      <c r="AE36" s="125"/>
-      <c r="AF36" s="125"/>
-      <c r="AG36" s="125"/>
-      <c r="AH36" s="125"/>
-      <c r="AI36" s="125"/>
-      <c r="AJ36" s="125"/>
-      <c r="AK36" s="125"/>
-      <c r="AL36" s="125"/>
-      <c r="AM36" s="125"/>
-      <c r="AN36" s="125"/>
-      <c r="AO36" s="125"/>
-      <c r="AP36" s="125"/>
-      <c r="AQ36" s="125"/>
-      <c r="AR36" s="125"/>
-      <c r="AS36" s="126"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="71"/>
+      <c r="AH36" s="71"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="71"/>
+      <c r="AK36" s="71"/>
+      <c r="AL36" s="71"/>
+      <c r="AM36" s="71"/>
+      <c r="AN36" s="71"/>
+      <c r="AO36" s="71"/>
+      <c r="AP36" s="71"/>
+      <c r="AQ36" s="71"/>
+      <c r="AR36" s="71"/>
+      <c r="AS36" s="72"/>
     </row>
-    <row r="37" spans="2:45" s="112" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="109"/>
-      <c r="C37" s="16">
+    <row r="37" spans="2:45" s="61" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="58"/>
+      <c r="C37" s="8">
         <v>6</v>
       </c>
-      <c r="D37" s="130" t="s">
+      <c r="D37" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="131"/>
-      <c r="P37" s="131"/>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="131"/>
-      <c r="S37" s="131"/>
-      <c r="T37" s="131"/>
-      <c r="U37" s="131"/>
-      <c r="V37" s="131"/>
-      <c r="W37" s="131"/>
-      <c r="X37" s="131"/>
-      <c r="Y37" s="131"/>
-      <c r="Z37" s="131"/>
-      <c r="AA37" s="131"/>
-      <c r="AB37" s="131"/>
-      <c r="AC37" s="131"/>
-      <c r="AD37" s="131"/>
-      <c r="AE37" s="131"/>
-      <c r="AF37" s="131"/>
-      <c r="AG37" s="131"/>
-      <c r="AH37" s="131"/>
-      <c r="AI37" s="131"/>
-      <c r="AJ37" s="131"/>
-      <c r="AK37" s="131"/>
-      <c r="AL37" s="131"/>
-      <c r="AM37" s="131"/>
-      <c r="AN37" s="131"/>
-      <c r="AO37" s="131"/>
-      <c r="AP37" s="131"/>
-      <c r="AQ37" s="131"/>
-      <c r="AR37" s="131"/>
-      <c r="AS37" s="132"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88"/>
+      <c r="AA37" s="88"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="88"/>
+      <c r="AD37" s="88"/>
+      <c r="AE37" s="88"/>
+      <c r="AF37" s="88"/>
+      <c r="AG37" s="88"/>
+      <c r="AH37" s="88"/>
+      <c r="AI37" s="88"/>
+      <c r="AJ37" s="88"/>
+      <c r="AK37" s="88"/>
+      <c r="AL37" s="88"/>
+      <c r="AM37" s="88"/>
+      <c r="AN37" s="88"/>
+      <c r="AO37" s="88"/>
+      <c r="AP37" s="88"/>
+      <c r="AQ37" s="88"/>
+      <c r="AR37" s="88"/>
+      <c r="AS37" s="89"/>
     </row>
-    <row r="38" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="109"/>
-      <c r="C38" s="133">
+    <row r="38" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="58"/>
+      <c r="C38" s="76">
         <v>7</v>
       </c>
-      <c r="D38" s="128" t="s">
+      <c r="D38" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="125"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="125"/>
-      <c r="V38" s="125"/>
-      <c r="W38" s="125"/>
-      <c r="X38" s="125"/>
-      <c r="Y38" s="125"/>
-      <c r="Z38" s="125"/>
-      <c r="AA38" s="125"/>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="125"/>
-      <c r="AD38" s="125"/>
-      <c r="AE38" s="125"/>
-      <c r="AF38" s="125"/>
-      <c r="AG38" s="125"/>
-      <c r="AH38" s="125"/>
-      <c r="AI38" s="125"/>
-      <c r="AJ38" s="125"/>
-      <c r="AK38" s="125"/>
-      <c r="AL38" s="125"/>
-      <c r="AM38" s="125"/>
-      <c r="AN38" s="125"/>
-      <c r="AO38" s="125"/>
-      <c r="AP38" s="125"/>
-      <c r="AQ38" s="125"/>
-      <c r="AR38" s="125"/>
-      <c r="AS38" s="126"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="71"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="71"/>
+      <c r="AH38" s="71"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="71"/>
+      <c r="AK38" s="71"/>
+      <c r="AL38" s="71"/>
+      <c r="AM38" s="71"/>
+      <c r="AN38" s="71"/>
+      <c r="AO38" s="71"/>
+      <c r="AP38" s="71"/>
+      <c r="AQ38" s="71"/>
+      <c r="AR38" s="71"/>
+      <c r="AS38" s="72"/>
     </row>
-    <row r="39" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="109"/>
-      <c r="C39" s="134">
+    <row r="39" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="58"/>
+      <c r="C39" s="77">
         <v>8</v>
       </c>
-      <c r="D39" s="135" t="s">
+      <c r="D39" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="136"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="125"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="125"/>
-      <c r="V39" s="125"/>
-      <c r="W39" s="125"/>
-      <c r="X39" s="125"/>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="125"/>
-      <c r="AA39" s="125"/>
-      <c r="AB39" s="125"/>
-      <c r="AC39" s="125"/>
-      <c r="AD39" s="125"/>
-      <c r="AE39" s="125"/>
-      <c r="AF39" s="125"/>
-      <c r="AG39" s="125"/>
-      <c r="AH39" s="125"/>
-      <c r="AI39" s="125"/>
-      <c r="AJ39" s="125"/>
-      <c r="AK39" s="125"/>
-      <c r="AL39" s="125"/>
-      <c r="AM39" s="125"/>
-      <c r="AN39" s="125"/>
-      <c r="AO39" s="125"/>
-      <c r="AP39" s="125"/>
-      <c r="AQ39" s="125"/>
-      <c r="AR39" s="125"/>
-      <c r="AS39" s="126"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="71"/>
+      <c r="AD39" s="71"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="71"/>
+      <c r="AH39" s="71"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="71"/>
+      <c r="AK39" s="71"/>
+      <c r="AL39" s="71"/>
+      <c r="AM39" s="71"/>
+      <c r="AN39" s="71"/>
+      <c r="AO39" s="71"/>
+      <c r="AP39" s="71"/>
+      <c r="AQ39" s="71"/>
+      <c r="AR39" s="71"/>
+      <c r="AS39" s="72"/>
     </row>
-    <row r="40" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="109"/>
-      <c r="C40" s="117">
+    <row r="40" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="58"/>
+      <c r="C40" s="66">
         <v>9</v>
       </c>
-      <c r="D40" s="137" t="s">
+      <c r="D40" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="125"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="125"/>
-      <c r="V40" s="125"/>
-      <c r="W40" s="125"/>
-      <c r="X40" s="125"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="125"/>
-      <c r="AA40" s="125"/>
-      <c r="AB40" s="125"/>
-      <c r="AC40" s="125"/>
-      <c r="AD40" s="125"/>
-      <c r="AE40" s="125"/>
-      <c r="AF40" s="125"/>
-      <c r="AG40" s="125"/>
-      <c r="AH40" s="125"/>
-      <c r="AI40" s="125"/>
-      <c r="AJ40" s="125"/>
-      <c r="AK40" s="125"/>
-      <c r="AL40" s="125"/>
-      <c r="AM40" s="125"/>
-      <c r="AN40" s="125"/>
-      <c r="AO40" s="125"/>
-      <c r="AP40" s="125"/>
-      <c r="AQ40" s="125"/>
-      <c r="AR40" s="125"/>
-      <c r="AS40" s="126"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="71"/>
+      <c r="X40" s="71"/>
+      <c r="Y40" s="71"/>
+      <c r="Z40" s="71"/>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="71"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="71"/>
+      <c r="AH40" s="71"/>
+      <c r="AI40" s="71"/>
+      <c r="AJ40" s="71"/>
+      <c r="AK40" s="71"/>
+      <c r="AL40" s="71"/>
+      <c r="AM40" s="71"/>
+      <c r="AN40" s="71"/>
+      <c r="AO40" s="71"/>
+      <c r="AP40" s="71"/>
+      <c r="AQ40" s="71"/>
+      <c r="AR40" s="71"/>
+      <c r="AS40" s="72"/>
     </row>
-    <row r="41" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="109"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="125"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="125"/>
-      <c r="V41" s="125"/>
-      <c r="W41" s="125"/>
-      <c r="X41" s="125"/>
-      <c r="Y41" s="125"/>
-      <c r="Z41" s="125"/>
-      <c r="AA41" s="125"/>
-      <c r="AB41" s="125"/>
-      <c r="AC41" s="125"/>
-      <c r="AD41" s="125"/>
-      <c r="AE41" s="125"/>
-      <c r="AF41" s="125"/>
-      <c r="AG41" s="125"/>
-      <c r="AH41" s="125"/>
-      <c r="AI41" s="125"/>
-      <c r="AJ41" s="125"/>
-      <c r="AK41" s="125"/>
-      <c r="AL41" s="125"/>
-      <c r="AM41" s="125"/>
-      <c r="AN41" s="125"/>
-      <c r="AO41" s="125"/>
-      <c r="AP41" s="125"/>
-      <c r="AQ41" s="125"/>
-      <c r="AR41" s="125"/>
-      <c r="AS41" s="126"/>
+    <row r="41" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="58"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
+      <c r="W41" s="71"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
+      <c r="AF41" s="71"/>
+      <c r="AG41" s="71"/>
+      <c r="AH41" s="71"/>
+      <c r="AI41" s="71"/>
+      <c r="AJ41" s="71"/>
+      <c r="AK41" s="71"/>
+      <c r="AL41" s="71"/>
+      <c r="AM41" s="71"/>
+      <c r="AN41" s="71"/>
+      <c r="AO41" s="71"/>
+      <c r="AP41" s="71"/>
+      <c r="AQ41" s="71"/>
+      <c r="AR41" s="71"/>
+      <c r="AS41" s="72"/>
     </row>
-    <row r="42" spans="2:45" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="109"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="125"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="125"/>
-      <c r="V42" s="125"/>
-      <c r="W42" s="125"/>
-      <c r="X42" s="125"/>
-      <c r="Y42" s="125"/>
-      <c r="Z42" s="125"/>
-      <c r="AA42" s="125"/>
-      <c r="AB42" s="125"/>
-      <c r="AC42" s="125"/>
-      <c r="AD42" s="125"/>
-      <c r="AE42" s="125"/>
-      <c r="AF42" s="125"/>
-      <c r="AG42" s="125"/>
-      <c r="AH42" s="125"/>
-      <c r="AI42" s="125"/>
-      <c r="AJ42" s="125"/>
-      <c r="AK42" s="125"/>
-      <c r="AL42" s="125"/>
-      <c r="AM42" s="125"/>
-      <c r="AN42" s="125"/>
-      <c r="AO42" s="125"/>
-      <c r="AP42" s="125"/>
-      <c r="AQ42" s="125"/>
-      <c r="AR42" s="125"/>
-      <c r="AS42" s="126"/>
+    <row r="42" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="58"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="71"/>
+      <c r="AF42" s="71"/>
+      <c r="AG42" s="71"/>
+      <c r="AH42" s="71"/>
+      <c r="AI42" s="71"/>
+      <c r="AJ42" s="71"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="71"/>
+      <c r="AM42" s="71"/>
+      <c r="AN42" s="71"/>
+      <c r="AO42" s="71"/>
+      <c r="AP42" s="71"/>
+      <c r="AQ42" s="71"/>
+      <c r="AR42" s="71"/>
+      <c r="AS42" s="72"/>
     </row>
-    <row r="43" spans="2:45" s="112" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="109"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="139"/>
-      <c r="T43" s="139"/>
-      <c r="U43" s="139"/>
-      <c r="V43" s="139"/>
-      <c r="W43" s="139"/>
-      <c r="X43" s="139"/>
-      <c r="Y43" s="139"/>
-      <c r="Z43" s="139"/>
-      <c r="AA43" s="139"/>
-      <c r="AB43" s="139"/>
-      <c r="AC43" s="139"/>
-      <c r="AD43" s="139"/>
-      <c r="AE43" s="139"/>
-      <c r="AF43" s="139"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="139"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="139"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="139"/>
-      <c r="AM43" s="139"/>
-      <c r="AN43" s="139"/>
-      <c r="AO43" s="139"/>
-      <c r="AP43" s="139"/>
-      <c r="AQ43" s="139"/>
-      <c r="AR43" s="139"/>
-      <c r="AS43" s="140"/>
+    <row r="43" spans="2:45" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="58"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="82"/>
+      <c r="AD43" s="82"/>
+      <c r="AE43" s="82"/>
+      <c r="AF43" s="82"/>
+      <c r="AG43" s="82"/>
+      <c r="AH43" s="82"/>
+      <c r="AI43" s="82"/>
+      <c r="AJ43" s="82"/>
+      <c r="AK43" s="82"/>
+      <c r="AL43" s="82"/>
+      <c r="AM43" s="82"/>
+      <c r="AN43" s="82"/>
+      <c r="AO43" s="82"/>
+      <c r="AP43" s="82"/>
+      <c r="AQ43" s="82"/>
+      <c r="AR43" s="82"/>
+      <c r="AS43" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D32:AS32"/>
-    <mergeCell ref="D37:AS37"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AU21:AU22"/>
-    <mergeCell ref="AV21:AV22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AH22:AK22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AD11:AF12"/>
-    <mergeCell ref="AN15:AQ16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="AC6:AF8"/>
-    <mergeCell ref="AT6:AW7"/>
+    <mergeCell ref="AH1:AK2"/>
     <mergeCell ref="AC10:AF10"/>
     <mergeCell ref="AN1:AQ2"/>
     <mergeCell ref="AT1:AW2"/>
@@ -5579,7 +5549,37 @@
     <mergeCell ref="L1:O2"/>
     <mergeCell ref="R1:U3"/>
     <mergeCell ref="X1:AA2"/>
-    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="AC6:AF8"/>
+    <mergeCell ref="AT6:AW7"/>
+    <mergeCell ref="AD11:AF12"/>
+    <mergeCell ref="AN15:AQ16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AV21:AV22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="D32:AS32"/>
+    <mergeCell ref="D37:AS37"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AU21:AU22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/References/ReqDocs/Rider/05_Home.xlsx
+++ b/References/ReqDocs/Rider/05_Home.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="05.Home" sheetId="1" r:id="rId1"/>
@@ -1425,6 +1425,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1443,158 +1590,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3766,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O2"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:AS32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,107 +3793,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="G1" s="133" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="G1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="L1" s="133" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="L1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="R1" s="133" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="R1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="X1" s="133" t="s">
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="X1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AH1" s="133" t="s">
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AH1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="133"/>
-      <c r="AK1" s="133"/>
-      <c r="AN1" s="133" t="s">
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AN1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="133"/>
-      <c r="AP1" s="133"/>
-      <c r="AQ1" s="133"/>
-      <c r="AT1" s="133" t="s">
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AT1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AU1" s="133"/>
-      <c r="AV1" s="133"/>
-      <c r="AW1" s="133"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
     </row>
     <row r="2" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="133"/>
-      <c r="AQ2" s="133"/>
-      <c r="AT2" s="133"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="133"/>
-      <c r="AW2" s="133"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
     </row>
     <row r="3" spans="2:51" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
     </row>
     <row r="4" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3910,69 +3910,69 @@
       <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="137" t="s">
+      <c r="M4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="137"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="137" t="s">
+      <c r="S4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="137"/>
+      <c r="T4" s="88"/>
       <c r="U4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="137" t="s">
+      <c r="Y4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="137"/>
+      <c r="Z4" s="88"/>
       <c r="AA4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="138" t="s">
+      <c r="AH4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="137" t="s">
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="139"/>
+      <c r="AK4" s="90"/>
       <c r="AN4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="137" t="s">
+      <c r="AO4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="137"/>
+      <c r="AP4" s="88"/>
       <c r="AQ4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AU4" s="137" t="s">
+      <c r="AU4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AV4" s="137"/>
+      <c r="AV4" s="88"/>
       <c r="AW4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3999,23 +3999,23 @@
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="10"/>
-      <c r="AT5" s="124" t="s">
+      <c r="AT5" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AU5" s="125"/>
-      <c r="AV5" s="125"/>
-      <c r="AW5" s="126"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="94"/>
       <c r="AY5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -4032,12 +4032,12 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="10"/>
-      <c r="AC6" s="133" t="s">
+      <c r="AC6" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
-      <c r="AF6" s="133"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
@@ -4046,18 +4046,18 @@
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="10"/>
-      <c r="AT6" s="127" t="s">
+      <c r="AT6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="129"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="97"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -4074,10 +4074,10 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
-      <c r="AC7" s="133"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="133"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="14"/>
@@ -4088,10 +4088,10 @@
         <v>18</v>
       </c>
       <c r="AQ7" s="10"/>
-      <c r="AT7" s="130"/>
-      <c r="AU7" s="131"/>
-      <c r="AV7" s="131"/>
-      <c r="AW7" s="132"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="99"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="100"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
@@ -4116,10 +4116,10 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="10"/>
-      <c r="AC8" s="133"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="133"/>
-      <c r="AF8" s="133"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="14"/>
@@ -4190,12 +4190,12 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="10"/>
-      <c r="AC10" s="134" t="s">
+      <c r="AC10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="136"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="87"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
@@ -4241,11 +4241,11 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="10"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="106" t="s">
+      <c r="AD11" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="107"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="102"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -4287,9 +4287,9 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="10"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="107"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="102"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
@@ -4419,12 +4419,12 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="10"/>
-      <c r="AN15" s="108" t="s">
+      <c r="AN15" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="AO15" s="109"/>
-      <c r="AP15" s="109"/>
-      <c r="AQ15" s="110"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="105"/>
       <c r="AT15" s="8"/>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
@@ -4471,10 +4471,10 @@
       <c r="AI16" s="23"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="24"/>
-      <c r="AN16" s="108"/>
-      <c r="AO16" s="109"/>
-      <c r="AP16" s="109"/>
-      <c r="AQ16" s="110"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="105"/>
       <c r="AT16" s="8"/>
       <c r="AU16" s="9"/>
       <c r="AV16" s="9" t="s">
@@ -4589,12 +4589,12 @@
       <c r="AW18" s="10"/>
     </row>
     <row r="19" spans="2:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
       <c r="G19" s="28" t="s">
         <v>42</v>
       </c>
@@ -4629,12 +4629,12 @@
       <c r="AI19" s="23"/>
       <c r="AJ19" s="23"/>
       <c r="AK19" s="24"/>
-      <c r="AN19" s="114" t="s">
+      <c r="AN19" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="AO19" s="115"/>
-      <c r="AP19" s="115"/>
-      <c r="AQ19" s="116"/>
+      <c r="AO19" s="110"/>
+      <c r="AP19" s="110"/>
+      <c r="AQ19" s="111"/>
       <c r="AT19" s="41"/>
       <c r="AU19" s="42"/>
       <c r="AV19" s="42"/>
@@ -4645,7 +4645,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="112" t="s">
         <v>48</v>
       </c>
       <c r="H20" s="44" t="s">
@@ -4659,7 +4659,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
-      <c r="R20" s="117" t="s">
+      <c r="R20" s="112" t="s">
         <v>48</v>
       </c>
       <c r="S20" s="44" t="s">
@@ -4669,7 +4669,7 @@
       <c r="U20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="X20" s="117" t="s">
+      <c r="X20" s="112" t="s">
         <v>48</v>
       </c>
       <c r="Y20" s="44" t="s">
@@ -4679,7 +4679,7 @@
       <c r="AA20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AH20" s="117" t="s">
+      <c r="AH20" s="112" t="s">
         <v>48</v>
       </c>
       <c r="AI20" s="44" t="s">
@@ -4689,73 +4689,73 @@
       <c r="AK20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AN20" s="119" t="s">
+      <c r="AN20" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="AO20" s="120"/>
-      <c r="AP20" s="120"/>
-      <c r="AQ20" s="121"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="115"/>
+      <c r="AQ20" s="116"/>
       <c r="AT20" s="8"/>
       <c r="AU20" s="9"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="10"/>
     </row>
     <row r="21" spans="2:49" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="119" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="90" t="s">
+      <c r="G21" s="113"/>
+      <c r="H21" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="L21" s="101" t="s">
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
+      <c r="L21" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="103"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="104" t="s">
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="125"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="104"/>
-      <c r="U21" s="105"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="104" t="s">
+      <c r="T21" s="126"/>
+      <c r="U21" s="127"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="105"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="90" t="s">
+      <c r="Z21" s="126"/>
+      <c r="AA21" s="127"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="91"/>
+      <c r="AJ21" s="121"/>
+      <c r="AK21" s="122"/>
       <c r="AN21" s="49" t="s">
         <v>60</v>
       </c>
       <c r="AO21" s="50"/>
       <c r="AP21" s="50"/>
       <c r="AQ21" s="51"/>
-      <c r="AT21" s="92" t="s">
+      <c r="AT21" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="AU21" s="94" t="s">
+      <c r="AU21" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="AV21" s="96" t="s">
+      <c r="AV21" s="128" t="s">
         <v>62</v>
       </c>
       <c r="AW21" s="48" t="s">
@@ -4763,45 +4763,45 @@
       </c>
     </row>
     <row r="22" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="123"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
       <c r="E22" s="52"/>
-      <c r="G22" s="98" t="s">
+      <c r="G22" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="132"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
       <c r="O22" s="27"/>
-      <c r="R22" s="98" t="s">
+      <c r="R22" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="100"/>
-      <c r="X22" s="98" t="s">
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="132"/>
+      <c r="X22" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="100"/>
-      <c r="AH22" s="98" t="s">
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="132"/>
+      <c r="AH22" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="100"/>
+      <c r="AI22" s="131"/>
+      <c r="AJ22" s="131"/>
+      <c r="AK22" s="132"/>
       <c r="AN22" s="53"/>
       <c r="AO22" s="54"/>
       <c r="AP22" s="54"/>
       <c r="AQ22" s="55"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="97"/>
+      <c r="AT22" s="140"/>
+      <c r="AU22" s="120"/>
+      <c r="AV22" s="129"/>
       <c r="AW22" s="52"/>
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.25">
@@ -4947,50 +4947,50 @@
       <c r="C32" s="66">
         <v>1</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="85"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="85"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="85"/>
-      <c r="AH32" s="85"/>
-      <c r="AI32" s="85"/>
-      <c r="AJ32" s="85"/>
-      <c r="AK32" s="85"/>
-      <c r="AL32" s="85"/>
-      <c r="AM32" s="85"/>
-      <c r="AN32" s="85"/>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="85"/>
-      <c r="AQ32" s="85"/>
-      <c r="AR32" s="85"/>
-      <c r="AS32" s="86"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="134"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="134"/>
+      <c r="AJ32" s="134"/>
+      <c r="AK32" s="134"/>
+      <c r="AL32" s="134"/>
+      <c r="AM32" s="134"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="134"/>
+      <c r="AP32" s="134"/>
+      <c r="AQ32" s="134"/>
+      <c r="AR32" s="134"/>
+      <c r="AS32" s="135"/>
     </row>
     <row r="33" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="58"/>
@@ -5197,50 +5197,50 @@
       <c r="C37" s="8">
         <v>6</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88"/>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88"/>
-      <c r="AE37" s="88"/>
-      <c r="AF37" s="88"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="88"/>
-      <c r="AI37" s="88"/>
-      <c r="AJ37" s="88"/>
-      <c r="AK37" s="88"/>
-      <c r="AL37" s="88"/>
-      <c r="AM37" s="88"/>
-      <c r="AN37" s="88"/>
-      <c r="AO37" s="88"/>
-      <c r="AP37" s="88"/>
-      <c r="AQ37" s="88"/>
-      <c r="AR37" s="88"/>
-      <c r="AS37" s="89"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+      <c r="AA37" s="137"/>
+      <c r="AB37" s="137"/>
+      <c r="AC37" s="137"/>
+      <c r="AD37" s="137"/>
+      <c r="AE37" s="137"/>
+      <c r="AF37" s="137"/>
+      <c r="AG37" s="137"/>
+      <c r="AH37" s="137"/>
+      <c r="AI37" s="137"/>
+      <c r="AJ37" s="137"/>
+      <c r="AK37" s="137"/>
+      <c r="AL37" s="137"/>
+      <c r="AM37" s="137"/>
+      <c r="AN37" s="137"/>
+      <c r="AO37" s="137"/>
+      <c r="AP37" s="137"/>
+      <c r="AQ37" s="137"/>
+      <c r="AR37" s="137"/>
+      <c r="AS37" s="138"/>
     </row>
     <row r="38" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="58"/>
@@ -5532,6 +5532,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D32:AS32"/>
+    <mergeCell ref="D37:AS37"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AU21:AU22"/>
+    <mergeCell ref="AV21:AV22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AD11:AF12"/>
+    <mergeCell ref="AN15:AQ16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="X1:AA2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="AC6:AF8"/>
+    <mergeCell ref="AT6:AW7"/>
     <mergeCell ref="AH1:AK2"/>
     <mergeCell ref="AC10:AF10"/>
     <mergeCell ref="AN1:AQ2"/>
@@ -5548,38 +5580,6 @@
     <mergeCell ref="G1:J2"/>
     <mergeCell ref="L1:O2"/>
     <mergeCell ref="R1:U3"/>
-    <mergeCell ref="X1:AA2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="AC6:AF8"/>
-    <mergeCell ref="AT6:AW7"/>
-    <mergeCell ref="AD11:AF12"/>
-    <mergeCell ref="AN15:AQ16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AV21:AV22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AH22:AK22"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="D32:AS32"/>
-    <mergeCell ref="D37:AS37"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AU21:AU22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/References/ReqDocs/Rider/05_Home.xlsx
+++ b/References/ReqDocs/Rider/05_Home.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="05.Home" sheetId="1" r:id="rId1"/>
@@ -1425,9 +1425,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1448,153 +1595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3766,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:AS32"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:AS37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,107 +3793,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="G1" s="84" t="s">
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="G1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="L1" s="84" t="s">
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="L1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="R1" s="84" t="s">
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="R1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="X1" s="84" t="s">
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="X1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AH1" s="84" t="s">
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AH1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AN1" s="84" t="s">
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AN1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AT1" s="84" t="s">
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AT1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
     </row>
     <row r="2" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124"/>
+      <c r="AQ2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
     </row>
     <row r="3" spans="2:51" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
     </row>
     <row r="4" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3910,69 +3910,69 @@
       <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="88"/>
+      <c r="N4" s="137"/>
       <c r="O4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="88"/>
+      <c r="T4" s="137"/>
       <c r="U4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="88" t="s">
+      <c r="Y4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="88"/>
+      <c r="Z4" s="137"/>
       <c r="AA4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="89" t="s">
+      <c r="AH4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88" t="s">
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="90"/>
+      <c r="AK4" s="139"/>
       <c r="AN4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="88" t="s">
+      <c r="AO4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="88"/>
+      <c r="AP4" s="137"/>
       <c r="AQ4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AU4" s="88" t="s">
+      <c r="AU4" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="AV4" s="88"/>
+      <c r="AV4" s="137"/>
       <c r="AW4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3999,23 +3999,23 @@
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="10"/>
-      <c r="AT5" s="92" t="s">
+      <c r="AT5" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="94"/>
+      <c r="AU5" s="126"/>
+      <c r="AV5" s="126"/>
+      <c r="AW5" s="127"/>
       <c r="AY5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -4032,12 +4032,12 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="10"/>
-      <c r="AC6" s="84" t="s">
+      <c r="AC6" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="124"/>
+      <c r="AF6" s="124"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
@@ -4046,18 +4046,18 @@
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="10"/>
-      <c r="AT6" s="95" t="s">
+      <c r="AT6" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="97"/>
+      <c r="AU6" s="129"/>
+      <c r="AV6" s="129"/>
+      <c r="AW6" s="130"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -4074,10 +4074,10 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="14"/>
@@ -4088,10 +4088,10 @@
         <v>18</v>
       </c>
       <c r="AQ7" s="10"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="100"/>
+      <c r="AT7" s="131"/>
+      <c r="AU7" s="132"/>
+      <c r="AV7" s="132"/>
+      <c r="AW7" s="133"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
@@ -4116,10 +4116,10 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="10"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="14"/>
@@ -4190,12 +4190,12 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="10"/>
-      <c r="AC10" s="85" t="s">
+      <c r="AC10" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="87"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="136"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
@@ -4241,11 +4241,11 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="10"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="101" t="s">
+      <c r="AD11" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="102"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="104"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -4287,9 +4287,9 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="10"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="101"/>
-      <c r="AF12" s="102"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="104"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
@@ -4419,12 +4419,12 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="10"/>
-      <c r="AN15" s="103" t="s">
+      <c r="AN15" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="105"/>
+      <c r="AO15" s="106"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="107"/>
       <c r="AT15" s="8"/>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
@@ -4471,10 +4471,10 @@
       <c r="AI16" s="23"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="24"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="105"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="106"/>
+      <c r="AP16" s="106"/>
+      <c r="AQ16" s="107"/>
       <c r="AT16" s="8"/>
       <c r="AU16" s="9"/>
       <c r="AV16" s="9" t="s">
@@ -4589,12 +4589,12 @@
       <c r="AW18" s="10"/>
     </row>
     <row r="19" spans="2:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="110"/>
       <c r="G19" s="28" t="s">
         <v>42</v>
       </c>
@@ -4629,12 +4629,12 @@
       <c r="AI19" s="23"/>
       <c r="AJ19" s="23"/>
       <c r="AK19" s="24"/>
-      <c r="AN19" s="109" t="s">
+      <c r="AN19" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="AO19" s="110"/>
-      <c r="AP19" s="110"/>
-      <c r="AQ19" s="111"/>
+      <c r="AO19" s="112"/>
+      <c r="AP19" s="112"/>
+      <c r="AQ19" s="113"/>
       <c r="AT19" s="41"/>
       <c r="AU19" s="42"/>
       <c r="AV19" s="42"/>
@@ -4645,7 +4645,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="G20" s="112" t="s">
+      <c r="G20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="H20" s="44" t="s">
@@ -4659,7 +4659,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
-      <c r="R20" s="112" t="s">
+      <c r="R20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="S20" s="44" t="s">
@@ -4669,7 +4669,7 @@
       <c r="U20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="X20" s="112" t="s">
+      <c r="X20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="Y20" s="44" t="s">
@@ -4679,7 +4679,7 @@
       <c r="AA20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AH20" s="112" t="s">
+      <c r="AH20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="AI20" s="44" t="s">
@@ -4689,73 +4689,73 @@
       <c r="AK20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AN20" s="114" t="s">
+      <c r="AN20" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="116"/>
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="118"/>
       <c r="AT20" s="8"/>
       <c r="AU20" s="9"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="10"/>
     </row>
     <row r="21" spans="2:49" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="94" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="121" t="s">
+      <c r="G21" s="115"/>
+      <c r="H21" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
-      <c r="L21" s="123" t="s">
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="L21" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="125"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="126" t="s">
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="123"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="126"/>
-      <c r="U21" s="127"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="126" t="s">
+      <c r="T21" s="101"/>
+      <c r="U21" s="102"/>
+      <c r="X21" s="115"/>
+      <c r="Y21" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="127"/>
-      <c r="AH21" s="113"/>
-      <c r="AI21" s="121" t="s">
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="102"/>
+      <c r="AH21" s="115"/>
+      <c r="AI21" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="122"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="91"/>
       <c r="AN21" s="49" t="s">
         <v>60</v>
       </c>
       <c r="AO21" s="50"/>
       <c r="AP21" s="50"/>
       <c r="AQ21" s="51"/>
-      <c r="AT21" s="139" t="s">
+      <c r="AT21" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="AU21" s="119" t="s">
+      <c r="AU21" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AV21" s="128" t="s">
+      <c r="AV21" s="96" t="s">
         <v>62</v>
       </c>
       <c r="AW21" s="48" t="s">
@@ -4763,45 +4763,45 @@
       </c>
     </row>
     <row r="22" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="118"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="52"/>
-      <c r="G22" s="130" t="s">
+      <c r="G22" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
       <c r="O22" s="27"/>
-      <c r="R22" s="130" t="s">
+      <c r="R22" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="132"/>
-      <c r="X22" s="130" t="s">
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="100"/>
+      <c r="X22" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="132"/>
-      <c r="AH22" s="130" t="s">
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="100"/>
+      <c r="AH22" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="AI22" s="131"/>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="132"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="100"/>
       <c r="AN22" s="53"/>
       <c r="AO22" s="54"/>
       <c r="AP22" s="54"/>
       <c r="AQ22" s="55"/>
-      <c r="AT22" s="140"/>
-      <c r="AU22" s="120"/>
-      <c r="AV22" s="129"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="95"/>
+      <c r="AV22" s="97"/>
       <c r="AW22" s="52"/>
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.25">
@@ -4947,50 +4947,50 @@
       <c r="C32" s="66">
         <v>1</v>
       </c>
-      <c r="D32" s="133" t="s">
+      <c r="D32" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="134"/>
-      <c r="AF32" s="134"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="134"/>
-      <c r="AJ32" s="134"/>
-      <c r="AK32" s="134"/>
-      <c r="AL32" s="134"/>
-      <c r="AM32" s="134"/>
-      <c r="AN32" s="134"/>
-      <c r="AO32" s="134"/>
-      <c r="AP32" s="134"/>
-      <c r="AQ32" s="134"/>
-      <c r="AR32" s="134"/>
-      <c r="AS32" s="135"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="85"/>
+      <c r="AE32" s="85"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="85"/>
+      <c r="AI32" s="85"/>
+      <c r="AJ32" s="85"/>
+      <c r="AK32" s="85"/>
+      <c r="AL32" s="85"/>
+      <c r="AM32" s="85"/>
+      <c r="AN32" s="85"/>
+      <c r="AO32" s="85"/>
+      <c r="AP32" s="85"/>
+      <c r="AQ32" s="85"/>
+      <c r="AR32" s="85"/>
+      <c r="AS32" s="86"/>
     </row>
     <row r="33" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="58"/>
@@ -5197,50 +5197,50 @@
       <c r="C37" s="8">
         <v>6</v>
       </c>
-      <c r="D37" s="136" t="s">
+      <c r="D37" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137"/>
-      <c r="N37" s="137"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="137"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="137"/>
-      <c r="V37" s="137"/>
-      <c r="W37" s="137"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="137"/>
-      <c r="AA37" s="137"/>
-      <c r="AB37" s="137"/>
-      <c r="AC37" s="137"/>
-      <c r="AD37" s="137"/>
-      <c r="AE37" s="137"/>
-      <c r="AF37" s="137"/>
-      <c r="AG37" s="137"/>
-      <c r="AH37" s="137"/>
-      <c r="AI37" s="137"/>
-      <c r="AJ37" s="137"/>
-      <c r="AK37" s="137"/>
-      <c r="AL37" s="137"/>
-      <c r="AM37" s="137"/>
-      <c r="AN37" s="137"/>
-      <c r="AO37" s="137"/>
-      <c r="AP37" s="137"/>
-      <c r="AQ37" s="137"/>
-      <c r="AR37" s="137"/>
-      <c r="AS37" s="138"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88"/>
+      <c r="AA37" s="88"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="88"/>
+      <c r="AD37" s="88"/>
+      <c r="AE37" s="88"/>
+      <c r="AF37" s="88"/>
+      <c r="AG37" s="88"/>
+      <c r="AH37" s="88"/>
+      <c r="AI37" s="88"/>
+      <c r="AJ37" s="88"/>
+      <c r="AK37" s="88"/>
+      <c r="AL37" s="88"/>
+      <c r="AM37" s="88"/>
+      <c r="AN37" s="88"/>
+      <c r="AO37" s="88"/>
+      <c r="AP37" s="88"/>
+      <c r="AQ37" s="88"/>
+      <c r="AR37" s="88"/>
+      <c r="AS37" s="89"/>
     </row>
     <row r="38" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="58"/>
@@ -5532,17 +5532,28 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D32:AS32"/>
-    <mergeCell ref="D37:AS37"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AU21:AU22"/>
-    <mergeCell ref="AV21:AV22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AH22:AK22"/>
-    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AN1:AQ2"/>
+    <mergeCell ref="AT1:AW2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="R1:U3"/>
+    <mergeCell ref="X1:AA2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="AC6:AF8"/>
+    <mergeCell ref="AT6:AW7"/>
+    <mergeCell ref="AH1:AK2"/>
     <mergeCell ref="AD11:AF12"/>
     <mergeCell ref="AN15:AQ16"/>
     <mergeCell ref="B19:E19"/>
@@ -5558,28 +5569,17 @@
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="X1:AA2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="AC6:AF8"/>
-    <mergeCell ref="AT6:AW7"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AN1:AQ2"/>
-    <mergeCell ref="AT1:AW2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="R1:U3"/>
+    <mergeCell ref="AV21:AV22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="D32:AS32"/>
+    <mergeCell ref="D37:AS37"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AU21:AU22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/References/ReqDocs/Rider/05_Home.xlsx
+++ b/References/ReqDocs/Rider/05_Home.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="05.Home" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +828,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -1310,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1406,17 +1418,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1425,14 +1429,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1443,159 +1585,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3766,7 +3791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D37" sqref="D37:AS37"/>
     </sheetView>
   </sheetViews>
@@ -3793,107 +3818,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="G1" s="124" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="G1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="L1" s="124" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="L1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="R1" s="124" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="R1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="X1" s="124" t="s">
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="X1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AH1" s="124" t="s">
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AH1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
-      <c r="AN1" s="124" t="s">
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AN1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AT1" s="124" t="s">
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AT1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
     </row>
     <row r="2" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
     </row>
     <row r="3" spans="2:51" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
     </row>
     <row r="4" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3910,69 +3935,69 @@
       <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="137" t="s">
+      <c r="M4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="137"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="137" t="s">
+      <c r="S4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="137"/>
+      <c r="T4" s="82"/>
       <c r="U4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="137" t="s">
+      <c r="Y4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="137"/>
+      <c r="Z4" s="82"/>
       <c r="AA4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="138" t="s">
+      <c r="AH4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="137" t="s">
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="139"/>
+      <c r="AK4" s="84"/>
       <c r="AN4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="137" t="s">
+      <c r="AO4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="137"/>
+      <c r="AP4" s="82"/>
       <c r="AQ4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AU4" s="137" t="s">
+      <c r="AU4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="AV4" s="137"/>
+      <c r="AV4" s="82"/>
       <c r="AW4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="127"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3999,23 +4024,23 @@
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="10"/>
-      <c r="AT5" s="125" t="s">
+      <c r="AT5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AU5" s="126"/>
-      <c r="AV5" s="126"/>
-      <c r="AW5" s="127"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="87"/>
+      <c r="AW5" s="88"/>
       <c r="AY5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -4032,12 +4057,12 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="10"/>
-      <c r="AC6" s="124" t="s">
+      <c r="AC6" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
@@ -4046,18 +4071,18 @@
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="10"/>
-      <c r="AT6" s="128" t="s">
+      <c r="AT6" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AU6" s="129"/>
-      <c r="AV6" s="129"/>
-      <c r="AW6" s="130"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="91"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="131"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -4074,10 +4099,10 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="14"/>
@@ -4088,10 +4113,10 @@
         <v>18</v>
       </c>
       <c r="AQ7" s="10"/>
-      <c r="AT7" s="131"/>
-      <c r="AU7" s="132"/>
-      <c r="AV7" s="132"/>
-      <c r="AW7" s="133"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="94"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
@@ -4116,10 +4141,10 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="10"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
-      <c r="AF8" s="124"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="14"/>
@@ -4190,12 +4215,12 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="10"/>
-      <c r="AC10" s="134" t="s">
+      <c r="AC10" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="136"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="80"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
@@ -4241,11 +4266,11 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="10"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="103" t="s">
+      <c r="AD11" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="104"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="96"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -4287,9 +4312,9 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="10"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="104"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="96"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
@@ -4419,12 +4444,12 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="10"/>
-      <c r="AN15" s="105" t="s">
+      <c r="AN15" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AO15" s="106"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="107"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="99"/>
       <c r="AT15" s="8"/>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
@@ -4471,10 +4496,10 @@
       <c r="AI16" s="23"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="24"/>
-      <c r="AN16" s="105"/>
-      <c r="AO16" s="106"/>
-      <c r="AP16" s="106"/>
-      <c r="AQ16" s="107"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AQ16" s="99"/>
       <c r="AT16" s="8"/>
       <c r="AU16" s="9"/>
       <c r="AV16" s="9" t="s">
@@ -4589,12 +4614,12 @@
       <c r="AW18" s="10"/>
     </row>
     <row r="19" spans="2:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="110"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="G19" s="28" t="s">
         <v>42</v>
       </c>
@@ -4629,12 +4654,12 @@
       <c r="AI19" s="23"/>
       <c r="AJ19" s="23"/>
       <c r="AK19" s="24"/>
-      <c r="AN19" s="111" t="s">
+      <c r="AN19" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="AO19" s="112"/>
-      <c r="AP19" s="112"/>
-      <c r="AQ19" s="113"/>
+      <c r="AO19" s="104"/>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="105"/>
       <c r="AT19" s="41"/>
       <c r="AU19" s="42"/>
       <c r="AV19" s="42"/>
@@ -4645,7 +4670,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="G20" s="114" t="s">
+      <c r="G20" s="106" t="s">
         <v>48</v>
       </c>
       <c r="H20" s="44" t="s">
@@ -4659,7 +4684,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
-      <c r="R20" s="114" t="s">
+      <c r="R20" s="106" t="s">
         <v>48</v>
       </c>
       <c r="S20" s="44" t="s">
@@ -4669,7 +4694,7 @@
       <c r="U20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="X20" s="114" t="s">
+      <c r="X20" s="106" t="s">
         <v>48</v>
       </c>
       <c r="Y20" s="44" t="s">
@@ -4679,7 +4704,7 @@
       <c r="AA20" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AH20" s="114" t="s">
+      <c r="AH20" s="106" t="s">
         <v>48</v>
       </c>
       <c r="AI20" s="44" t="s">
@@ -4689,73 +4714,73 @@
       <c r="AK20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AN20" s="116" t="s">
+      <c r="AN20" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="AO20" s="117"/>
-      <c r="AP20" s="117"/>
-      <c r="AQ20" s="118"/>
+      <c r="AO20" s="109"/>
+      <c r="AP20" s="109"/>
+      <c r="AQ20" s="110"/>
       <c r="AT20" s="8"/>
       <c r="AU20" s="9"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="10"/>
     </row>
     <row r="21" spans="2:49" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="113" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="H21" s="90" t="s">
+      <c r="G21" s="107"/>
+      <c r="H21" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="L21" s="121" t="s">
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
+      <c r="L21" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="123"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="101" t="s">
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="119"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102"/>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="101" t="s">
+      <c r="T21" s="120"/>
+      <c r="U21" s="121"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="102"/>
-      <c r="AH21" s="115"/>
-      <c r="AI21" s="90" t="s">
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="121"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="91"/>
+      <c r="AJ21" s="115"/>
+      <c r="AK21" s="116"/>
       <c r="AN21" s="49" t="s">
         <v>60</v>
       </c>
       <c r="AO21" s="50"/>
       <c r="AP21" s="50"/>
       <c r="AQ21" s="51"/>
-      <c r="AT21" s="92" t="s">
+      <c r="AT21" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="AU21" s="94" t="s">
+      <c r="AU21" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="AV21" s="96" t="s">
+      <c r="AV21" s="122" t="s">
         <v>62</v>
       </c>
       <c r="AW21" s="48" t="s">
@@ -4763,45 +4788,45 @@
       </c>
     </row>
     <row r="22" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="120"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="52"/>
-      <c r="G22" s="98" t="s">
+      <c r="G22" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="126"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
       <c r="O22" s="27"/>
-      <c r="R22" s="98" t="s">
+      <c r="R22" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="100"/>
-      <c r="X22" s="98" t="s">
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="126"/>
+      <c r="X22" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="100"/>
-      <c r="AH22" s="98" t="s">
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="126"/>
+      <c r="AH22" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="100"/>
+      <c r="AI22" s="125"/>
+      <c r="AJ22" s="125"/>
+      <c r="AK22" s="126"/>
       <c r="AN22" s="53"/>
       <c r="AO22" s="54"/>
       <c r="AP22" s="54"/>
       <c r="AQ22" s="55"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="97"/>
+      <c r="AT22" s="131"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="123"/>
       <c r="AW22" s="52"/>
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.25">
@@ -4942,312 +4967,312 @@
       <c r="AR31" s="63"/>
       <c r="AS31" s="65"/>
     </row>
-    <row r="32" spans="2:49" s="61" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="66">
+    <row r="32" spans="2:49" s="145" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="141"/>
+      <c r="C32" s="146">
         <v>1</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="85"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="85"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="85"/>
-      <c r="AH32" s="85"/>
-      <c r="AI32" s="85"/>
-      <c r="AJ32" s="85"/>
-      <c r="AK32" s="85"/>
-      <c r="AL32" s="85"/>
-      <c r="AM32" s="85"/>
-      <c r="AN32" s="85"/>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="85"/>
-      <c r="AQ32" s="85"/>
-      <c r="AR32" s="85"/>
-      <c r="AS32" s="86"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="148"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="148"/>
+      <c r="AL32" s="148"/>
+      <c r="AM32" s="148"/>
+      <c r="AN32" s="148"/>
+      <c r="AO32" s="148"/>
+      <c r="AP32" s="148"/>
+      <c r="AQ32" s="148"/>
+      <c r="AR32" s="148"/>
+      <c r="AS32" s="149"/>
     </row>
-    <row r="33" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="67">
+    <row r="33" spans="2:45" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="133"/>
+      <c r="C33" s="134">
         <v>2</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="71"/>
-      <c r="AL33" s="71"/>
-      <c r="AM33" s="71"/>
-      <c r="AN33" s="71"/>
-      <c r="AO33" s="71"/>
-      <c r="AP33" s="71"/>
-      <c r="AQ33" s="71"/>
-      <c r="AR33" s="71"/>
-      <c r="AS33" s="72"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="138"/>
+      <c r="Z33" s="138"/>
+      <c r="AA33" s="138"/>
+      <c r="AB33" s="138"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="138"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="138"/>
+      <c r="AG33" s="138"/>
+      <c r="AH33" s="138"/>
+      <c r="AI33" s="138"/>
+      <c r="AJ33" s="138"/>
+      <c r="AK33" s="138"/>
+      <c r="AL33" s="138"/>
+      <c r="AM33" s="138"/>
+      <c r="AN33" s="138"/>
+      <c r="AO33" s="138"/>
+      <c r="AP33" s="138"/>
+      <c r="AQ33" s="138"/>
+      <c r="AR33" s="138"/>
+      <c r="AS33" s="139"/>
     </row>
-    <row r="34" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
-      <c r="C34" s="8">
+    <row r="34" spans="2:45" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="141"/>
+      <c r="C34" s="150">
         <v>3</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="71"/>
-      <c r="AL34" s="71"/>
-      <c r="AM34" s="71"/>
-      <c r="AN34" s="71"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="71"/>
-      <c r="AQ34" s="71"/>
-      <c r="AR34" s="71"/>
-      <c r="AS34" s="72"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="142"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="142"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="142"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="143"/>
+      <c r="W34" s="143"/>
+      <c r="X34" s="143"/>
+      <c r="Y34" s="143"/>
+      <c r="Z34" s="143"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="143"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="143"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="143"/>
+      <c r="AL34" s="143"/>
+      <c r="AM34" s="143"/>
+      <c r="AN34" s="143"/>
+      <c r="AO34" s="143"/>
+      <c r="AP34" s="143"/>
+      <c r="AQ34" s="143"/>
+      <c r="AR34" s="143"/>
+      <c r="AS34" s="144"/>
     </row>
-    <row r="35" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="58"/>
-      <c r="C35" s="8">
+    <row r="35" spans="2:45" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="141"/>
+      <c r="C35" s="150">
         <v>4</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="71"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="71"/>
-      <c r="AL35" s="71"/>
-      <c r="AM35" s="71"/>
-      <c r="AN35" s="71"/>
-      <c r="AO35" s="71"/>
-      <c r="AP35" s="71"/>
-      <c r="AQ35" s="71"/>
-      <c r="AR35" s="71"/>
-      <c r="AS35" s="72"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="142"/>
+      <c r="P35" s="142"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="143"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="143"/>
+      <c r="V35" s="143"/>
+      <c r="W35" s="143"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="143"/>
+      <c r="Z35" s="143"/>
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="143"/>
+      <c r="AF35" s="143"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="143"/>
+      <c r="AI35" s="143"/>
+      <c r="AJ35" s="143"/>
+      <c r="AK35" s="143"/>
+      <c r="AL35" s="143"/>
+      <c r="AM35" s="143"/>
+      <c r="AN35" s="143"/>
+      <c r="AO35" s="143"/>
+      <c r="AP35" s="143"/>
+      <c r="AQ35" s="143"/>
+      <c r="AR35" s="143"/>
+      <c r="AS35" s="144"/>
     </row>
-    <row r="36" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="58"/>
-      <c r="C36" s="75">
+    <row r="36" spans="2:45" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="141"/>
+      <c r="C36" s="153">
         <v>5</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
-      <c r="AL36" s="71"/>
-      <c r="AM36" s="71"/>
-      <c r="AN36" s="71"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="71"/>
-      <c r="AQ36" s="71"/>
-      <c r="AR36" s="71"/>
-      <c r="AS36" s="72"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="142"/>
+      <c r="P36" s="142"/>
+      <c r="Q36" s="142"/>
+      <c r="R36" s="142"/>
+      <c r="S36" s="143"/>
+      <c r="T36" s="142"/>
+      <c r="U36" s="143"/>
+      <c r="V36" s="143"/>
+      <c r="W36" s="143"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="143"/>
+      <c r="Z36" s="143"/>
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="143"/>
+      <c r="AD36" s="143"/>
+      <c r="AE36" s="143"/>
+      <c r="AF36" s="143"/>
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="143"/>
+      <c r="AI36" s="143"/>
+      <c r="AJ36" s="143"/>
+      <c r="AK36" s="143"/>
+      <c r="AL36" s="143"/>
+      <c r="AM36" s="143"/>
+      <c r="AN36" s="143"/>
+      <c r="AO36" s="143"/>
+      <c r="AP36" s="143"/>
+      <c r="AQ36" s="143"/>
+      <c r="AR36" s="143"/>
+      <c r="AS36" s="144"/>
     </row>
     <row r="37" spans="2:45" s="61" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="58"/>
       <c r="C37" s="8">
         <v>6</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88"/>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88"/>
-      <c r="AE37" s="88"/>
-      <c r="AF37" s="88"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="88"/>
-      <c r="AI37" s="88"/>
-      <c r="AJ37" s="88"/>
-      <c r="AK37" s="88"/>
-      <c r="AL37" s="88"/>
-      <c r="AM37" s="88"/>
-      <c r="AN37" s="88"/>
-      <c r="AO37" s="88"/>
-      <c r="AP37" s="88"/>
-      <c r="AQ37" s="88"/>
-      <c r="AR37" s="88"/>
-      <c r="AS37" s="89"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="128"/>
+      <c r="W37" s="128"/>
+      <c r="X37" s="128"/>
+      <c r="Y37" s="128"/>
+      <c r="Z37" s="128"/>
+      <c r="AA37" s="128"/>
+      <c r="AB37" s="128"/>
+      <c r="AC37" s="128"/>
+      <c r="AD37" s="128"/>
+      <c r="AE37" s="128"/>
+      <c r="AF37" s="128"/>
+      <c r="AG37" s="128"/>
+      <c r="AH37" s="128"/>
+      <c r="AI37" s="128"/>
+      <c r="AJ37" s="128"/>
+      <c r="AK37" s="128"/>
+      <c r="AL37" s="128"/>
+      <c r="AM37" s="128"/>
+      <c r="AN37" s="128"/>
+      <c r="AO37" s="128"/>
+      <c r="AP37" s="128"/>
+      <c r="AQ37" s="128"/>
+      <c r="AR37" s="128"/>
+      <c r="AS37" s="129"/>
     </row>
     <row r="38" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="58"/>
-      <c r="C38" s="76">
+      <c r="C38" s="70">
         <v>7</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="69" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="9"/>
@@ -5264,43 +5289,43 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="71"/>
+      <c r="S38" s="67"/>
       <c r="T38" s="9"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="71"/>
-      <c r="AI38" s="71"/>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="71"/>
-      <c r="AM38" s="71"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="71"/>
-      <c r="AQ38" s="71"/>
-      <c r="AR38" s="71"/>
-      <c r="AS38" s="72"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="67"/>
+      <c r="AI38" s="67"/>
+      <c r="AJ38" s="67"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="67"/>
+      <c r="AN38" s="67"/>
+      <c r="AO38" s="67"/>
+      <c r="AP38" s="67"/>
+      <c r="AQ38" s="67"/>
+      <c r="AR38" s="67"/>
+      <c r="AS38" s="68"/>
     </row>
     <row r="39" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="58"/>
-      <c r="C39" s="77">
+      <c r="C39" s="71">
         <v>8</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="79"/>
+      <c r="E39" s="73"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -5314,40 +5339,40 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="71"/>
+      <c r="S39" s="67"/>
       <c r="T39" s="9"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71"/>
-      <c r="AB39" s="71"/>
-      <c r="AC39" s="71"/>
-      <c r="AD39" s="71"/>
-      <c r="AE39" s="71"/>
-      <c r="AF39" s="71"/>
-      <c r="AG39" s="71"/>
-      <c r="AH39" s="71"/>
-      <c r="AI39" s="71"/>
-      <c r="AJ39" s="71"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="71"/>
-      <c r="AM39" s="71"/>
-      <c r="AN39" s="71"/>
-      <c r="AO39" s="71"/>
-      <c r="AP39" s="71"/>
-      <c r="AQ39" s="71"/>
-      <c r="AR39" s="71"/>
-      <c r="AS39" s="72"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="67"/>
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="67"/>
+      <c r="AI39" s="67"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="67"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="67"/>
+      <c r="AQ39" s="67"/>
+      <c r="AR39" s="67"/>
+      <c r="AS39" s="68"/>
     </row>
     <row r="40" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="58"/>
       <c r="C40" s="66">
         <v>9</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="74" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="9"/>
@@ -5357,40 +5382,40 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="71"/>
+      <c r="L40" s="67"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="71"/>
+      <c r="S40" s="67"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="71"/>
-      <c r="AC40" s="71"/>
-      <c r="AD40" s="71"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="71"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="71"/>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="71"/>
-      <c r="AM40" s="71"/>
-      <c r="AN40" s="71"/>
-      <c r="AO40" s="71"/>
-      <c r="AP40" s="71"/>
-      <c r="AQ40" s="71"/>
-      <c r="AR40" s="71"/>
-      <c r="AS40" s="72"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="67"/>
+      <c r="AI40" s="67"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="67"/>
+      <c r="AN40" s="67"/>
+      <c r="AO40" s="67"/>
+      <c r="AP40" s="67"/>
+      <c r="AQ40" s="67"/>
+      <c r="AR40" s="67"/>
+      <c r="AS40" s="68"/>
     </row>
     <row r="41" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="58"/>
@@ -5410,33 +5435,33 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="71"/>
+      <c r="S41" s="67"/>
       <c r="T41" s="9"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="71"/>
-      <c r="AJ41" s="71"/>
-      <c r="AK41" s="71"/>
-      <c r="AL41" s="71"/>
-      <c r="AM41" s="71"/>
-      <c r="AN41" s="71"/>
-      <c r="AO41" s="71"/>
-      <c r="AP41" s="71"/>
-      <c r="AQ41" s="71"/>
-      <c r="AR41" s="71"/>
-      <c r="AS41" s="72"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="67"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="67"/>
+      <c r="AI41" s="67"/>
+      <c r="AJ41" s="67"/>
+      <c r="AK41" s="67"/>
+      <c r="AL41" s="67"/>
+      <c r="AM41" s="67"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="67"/>
+      <c r="AP41" s="67"/>
+      <c r="AQ41" s="67"/>
+      <c r="AR41" s="67"/>
+      <c r="AS41" s="68"/>
     </row>
     <row r="42" spans="2:45" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="58"/>
@@ -5456,37 +5481,37 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="71"/>
+      <c r="S42" s="67"/>
       <c r="T42" s="9"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71"/>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="71"/>
-      <c r="AM42" s="71"/>
-      <c r="AN42" s="71"/>
-      <c r="AO42" s="71"/>
-      <c r="AP42" s="71"/>
-      <c r="AQ42" s="71"/>
-      <c r="AR42" s="71"/>
-      <c r="AS42" s="72"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="67"/>
+      <c r="AE42" s="67"/>
+      <c r="AF42" s="67"/>
+      <c r="AG42" s="67"/>
+      <c r="AH42" s="67"/>
+      <c r="AI42" s="67"/>
+      <c r="AJ42" s="67"/>
+      <c r="AK42" s="67"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="67"/>
+      <c r="AN42" s="67"/>
+      <c r="AO42" s="67"/>
+      <c r="AP42" s="67"/>
+      <c r="AQ42" s="67"/>
+      <c r="AR42" s="67"/>
+      <c r="AS42" s="68"/>
     </row>
     <row r="43" spans="2:45" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58"/>
-      <c r="C43" s="81"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -5502,36 +5527,68 @@
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="82"/>
-      <c r="AD43" s="82"/>
-      <c r="AE43" s="82"/>
-      <c r="AF43" s="82"/>
-      <c r="AG43" s="82"/>
-      <c r="AH43" s="82"/>
-      <c r="AI43" s="82"/>
-      <c r="AJ43" s="82"/>
-      <c r="AK43" s="82"/>
-      <c r="AL43" s="82"/>
-      <c r="AM43" s="82"/>
-      <c r="AN43" s="82"/>
-      <c r="AO43" s="82"/>
-      <c r="AP43" s="82"/>
-      <c r="AQ43" s="82"/>
-      <c r="AR43" s="82"/>
-      <c r="AS43" s="83"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="76"/>
+      <c r="W43" s="76"/>
+      <c r="X43" s="76"/>
+      <c r="Y43" s="76"/>
+      <c r="Z43" s="76"/>
+      <c r="AA43" s="76"/>
+      <c r="AB43" s="76"/>
+      <c r="AC43" s="76"/>
+      <c r="AD43" s="76"/>
+      <c r="AE43" s="76"/>
+      <c r="AF43" s="76"/>
+      <c r="AG43" s="76"/>
+      <c r="AH43" s="76"/>
+      <c r="AI43" s="76"/>
+      <c r="AJ43" s="76"/>
+      <c r="AK43" s="76"/>
+      <c r="AL43" s="76"/>
+      <c r="AM43" s="76"/>
+      <c r="AN43" s="76"/>
+      <c r="AO43" s="76"/>
+      <c r="AP43" s="76"/>
+      <c r="AQ43" s="76"/>
+      <c r="AR43" s="76"/>
+      <c r="AS43" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D32:AS32"/>
+    <mergeCell ref="D37:AS37"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AU21:AU22"/>
+    <mergeCell ref="AV21:AV22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="AD11:AF12"/>
+    <mergeCell ref="AN15:AQ16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="AC6:AF8"/>
+    <mergeCell ref="AT6:AW7"/>
     <mergeCell ref="AC10:AF10"/>
     <mergeCell ref="AN1:AQ2"/>
     <mergeCell ref="AT1:AW2"/>
@@ -5548,38 +5605,6 @@
     <mergeCell ref="L1:O2"/>
     <mergeCell ref="R1:U3"/>
     <mergeCell ref="X1:AA2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="AC6:AF8"/>
-    <mergeCell ref="AT6:AW7"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="AD11:AF12"/>
-    <mergeCell ref="AN15:AQ16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="AV21:AV22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AH22:AK22"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="D32:AS32"/>
-    <mergeCell ref="D37:AS37"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AU21:AU22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
